--- a/results/result.xlsx
+++ b/results/result.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>BO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,6 +100,16 @@
   </si>
   <si>
     <t>2018.04.01-2018.09.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MACD_BOLLStrategy</t>
+  </si>
+  <si>
+    <t>'short_window': 4.0, 'delta_window': 77.0, 'window': 11.0, 'a': 3.0</t>
+  </si>
+  <si>
+    <t>a': 0.5319011231919033, 'delta_window': 56, 'short_window': 18, 'window': 37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,11 +159,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,16 +449,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:E21"/>
+  <dimension ref="A3:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="60.21875" customWidth="1"/>
+    <col min="3" max="3" width="84.88671875" customWidth="1"/>
     <col min="4" max="5" width="25.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -552,6 +565,20 @@
         <v>-0.42</v>
       </c>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2.72587449913628</v>
+      </c>
+      <c r="E11" s="1">
+        <v>4.0261186999999997E-2</v>
+      </c>
+    </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
@@ -644,6 +671,20 @@
       </c>
       <c r="E21" s="1">
         <v>-0.43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1.93444162215114</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.1430478198</v>
       </c>
     </row>
   </sheetData>
